--- a/data/trans_dic/P54_A_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir una crisis de abastecimiento o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir una crisis de abastecimiento o ya le ha ocurrido (tasa de respuesta: 98,52%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,32 +633,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>66,4%</t>
+          <t>65,6%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>77,22%</t>
+          <t>77,52%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>82,65%</t>
+          <t>80,87%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>88,71%</t>
+          <t>88,81%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +668,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>74,13%</t>
+          <t>72,92%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>82,88%</t>
+          <t>83,09%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,31; 15,06</t>
+          <t>6,22; 15,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>57,87; 74,42</t>
+          <t>57,15; 72,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>69,12; 83,62</t>
+          <t>70,38; 84,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,63; 22,94</t>
+          <t>11,6; 23,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>76,14; 87,95</t>
+          <t>74,23; 86,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>83,29; 92,52</t>
+          <t>84,06; 92,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,72; 17,0</t>
+          <t>9,87; 16,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>68,82; 79,16</t>
+          <t>67,76; 77,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>78,57; 86,82</t>
+          <t>78,88; 86,63</t>
         </is>
       </c>
     </row>
@@ -742,17 +743,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>69,04%</t>
+          <t>69,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>77,86%</t>
+          <t>77,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -762,12 +763,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>74,16%</t>
+          <t>73,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>82,26%</t>
+          <t>82,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -777,12 +778,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>71,48%</t>
+          <t>71,37%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>79,94%</t>
+          <t>79,81%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,31; 32,01</t>
+          <t>11,72; 32,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>61,11; 76,62</t>
+          <t>61,33; 76,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>71,78; 83,13</t>
+          <t>71,21; 83,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,33; 20,59</t>
+          <t>10,39; 20,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>66,61; 80,04</t>
+          <t>65,5; 79,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>76,25; 86,47</t>
+          <t>76,65; 86,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,03; 24,32</t>
+          <t>13,36; 24,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>65,82; 76,58</t>
+          <t>66,25; 76,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>75,54; 83,49</t>
+          <t>74,95; 83,49</t>
         </is>
       </c>
     </row>
@@ -857,12 +858,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>74,01%</t>
+          <t>73,53%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>75,69%</t>
+          <t>74,82%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -872,27 +873,27 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>75,61%</t>
+          <t>75,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>81,45%</t>
+          <t>81,7%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>74,81%</t>
+          <t>74,33%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>78,64%</t>
+          <t>78,35%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,24; 20,24</t>
+          <t>11,0; 20,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>64,06; 80,17</t>
+          <t>65,73; 79,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68,71; 80,7</t>
+          <t>68,09; 79,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,84; 22,98</t>
+          <t>13,92; 22,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>70,18; 80,58</t>
+          <t>69,57; 79,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>77,01; 85,03</t>
+          <t>77,15; 85,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,44; 20,08</t>
+          <t>13,78; 20,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>69,13; 78,92</t>
+          <t>69,69; 78,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>74,87; 81,9</t>
+          <t>74,42; 81,63</t>
         </is>
       </c>
     </row>
@@ -967,12 +968,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>69,39%</t>
+          <t>68,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>78,89%</t>
+          <t>78,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -982,12 +983,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>79,17%</t>
+          <t>78,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>85,42%</t>
+          <t>85,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -997,12 +998,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>74,41%</t>
+          <t>73,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>82,25%</t>
+          <t>82,26%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,03; 21,81</t>
+          <t>12,68; 21,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>62,09; 74,83</t>
+          <t>63,19; 74,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>73,87; 82,9</t>
+          <t>74,11; 83,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,17; 27,71</t>
+          <t>18,05; 27,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>74,13; 83,35</t>
+          <t>72,95; 82,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,38; 88,68</t>
+          <t>81,52; 88,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,62; 23,25</t>
+          <t>16,79; 23,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>70,67; 77,85</t>
+          <t>70,19; 77,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>79,03; 85,11</t>
+          <t>79,24; 84,91</t>
         </is>
       </c>
     </row>
@@ -1077,12 +1078,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>71,07%</t>
+          <t>70,28%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>75,84%</t>
+          <t>75,98%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1092,12 +1093,12 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>85,58%</t>
+          <t>85,52%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>88,33%</t>
+          <t>88,38%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1107,12 +1108,12 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>78,4%</t>
+          <t>77,94%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>82,15%</t>
+          <t>82,24%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,77; 12,96</t>
+          <t>5,48; 13,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>64,09; 77,98</t>
+          <t>62,58; 76,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>69,17; 81,06</t>
+          <t>68,71; 80,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,83; 22,49</t>
+          <t>12,17; 22,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>79,99; 89,66</t>
+          <t>80,61; 89,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>82,1; 92,13</t>
+          <t>82,63; 91,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,98; 16,53</t>
+          <t>9,8; 16,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>73,57; 82,36</t>
+          <t>73,4; 82,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>78,09; 85,64</t>
+          <t>77,89; 85,55</t>
         </is>
       </c>
     </row>
@@ -1187,27 +1188,27 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>78,0%</t>
+          <t>76,75%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>80,4%</t>
+          <t>79,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>21,68%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>81,67%</t>
+          <t>82,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>85,49%</t>
+          <t>85,18%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1217,12 +1218,12 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>80,09%</t>
+          <t>79,75%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>83,23%</t>
+          <t>82,85%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,94; 25,23</t>
+          <t>13,5; 24,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>69,84; 84,91</t>
+          <t>68,14; 83,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>72,62; 86,04</t>
+          <t>72,18; 85,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,18; 28,91</t>
+          <t>16,57; 28,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>75,3; 87,23</t>
+          <t>76,83; 87,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>80,53; 89,22</t>
+          <t>80,4; 88,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,72; 24,93</t>
+          <t>16,38; 24,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>74,76; 84,18</t>
+          <t>75,02; 83,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>78,96; 86,57</t>
+          <t>78,9; 86,5</t>
         </is>
       </c>
     </row>
@@ -1297,12 +1298,12 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>71,42%</t>
+          <t>70,85%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>77,61%</t>
+          <t>77,41%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1312,12 +1313,12 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>79,59%</t>
+          <t>79,01%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>85,05%</t>
+          <t>85,07%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1327,12 +1328,12 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>75,57%</t>
+          <t>75,01%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>81,41%</t>
+          <t>81,32%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,96; 17,72</t>
+          <t>13,01; 17,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>68,22; 74,36</t>
+          <t>67,63; 73,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>75,04; 80,04</t>
+          <t>75,1; 79,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,89; 21,09</t>
+          <t>16,67; 20,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>77,06; 81,7</t>
+          <t>76,61; 81,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>83,24; 86,75</t>
+          <t>83,24; 86,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,4; 18,6</t>
+          <t>15,31; 18,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>73,57; 77,44</t>
+          <t>73,25; 76,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>79,85; 82,92</t>
+          <t>79,73; 82,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1405,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir una crisis de abastecimiento o ya le ha ocurrido (tasa de respuesta: 98,52%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>50030</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>327137</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>403951</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>73420</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>371184</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>449610</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>123451</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>698321</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>853561</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>31112; 78716</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>285023; 363088</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>366742; 439285</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>51616; 103480</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>340709; 397307</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>425560; 469455</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>93317; 156993</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>648922; 746297</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>810399; 889916</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>325.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>109612</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>394692</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>437051</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>76786</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>376832</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>413443</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>186398</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>771524</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>850494</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>64400; 175919</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>348030; 436802</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>400368; 468694</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>52720; 106167</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>336428; 410266</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>385886; 435551</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>141095; 257348</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>716244; 826437</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>798733; 889694</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>296.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>498.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>99328</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>498331</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>504704</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>122281</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>526009</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>581057</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>221609</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1024341</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1085760</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>71532; 132190</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>445497; 540981</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>459308; 538362</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>94474; 153653</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>487180; 559506</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>548651; 605395</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>183083; 270211</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>960366; 1078327</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1031283; 1131152</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>408.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>531.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>105535</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>442315</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>497416</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>149863</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>523163</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>569498</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>255398</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>965479</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1066914</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>79672; 134304</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>406028; 479504</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>467178; 525142</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>119315; 184988</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>488275; 550031</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>543440; 591655</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>216516; 297669</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>920893; 1014921</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1027782; 1101251</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>329.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>425.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>44031</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>345222</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>372351</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>75781</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>424399</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>441428</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>119813</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>769622</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>813779</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>26915; 63979</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>307400; 376633</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>336756; 396380</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>55365; 101593</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>400038; 444935</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>412681; 459004</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>92721; 153823</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>724786; 810315</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>770758; 846542</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>352.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>90798</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>407131</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>410376</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>124710</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>577432</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>556277</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>215508</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>984562</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>966652</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>65387; 120622</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>361463; 442973</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>370749; 438719</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>95345; 161745</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>540949; 612823</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>525075; 580965</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>173623; 263577</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>926128; 1032632</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>920557; 1009163</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>799.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1015.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1041.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1376.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>451.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1840.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2391.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>499335</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2414828</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2625848</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>622842</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2799020</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3011313</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1122177</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>5213848</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>5637161</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>429729; 591729</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2305077; 2513224</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2547549; 2701890</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>553733; 691720</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2714067; 2871148</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2946758; 3069963</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1014636; 1225502</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>5091422; 5329552</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>5527058; 5730772</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>